--- a/source/web/web.sph/ledger.xlsx
+++ b/source/web/web.sph/ledger.xlsx
@@ -164,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -242,23 +242,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,12 +287,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -318,7 +314,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -328,14 +323,51 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -345,56 +377,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +721,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,939 +736,932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="28" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <f>SUM(C25-B25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <f>C25-B25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11">
         <f>IF(ISBLANK((A26)),0,(E25+C26-B26))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11">
         <f>IF(ISBLANK((A27)),0,(E26+C27-B27))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E30" s="29"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="23"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="26"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="26"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="26"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="26"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="42"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="26"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="26"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="26"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="26"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="26"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="26"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="26"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="26"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="26"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="26"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="26"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="26"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="26"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="26"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="26"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="26"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="26"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="26"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="26"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="26"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="26"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="26"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="26"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="26"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="26"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="26"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="26"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="26"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="26"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="56"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="26"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="26"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="26"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="56"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="26"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="26"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="26"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="26"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="26"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="26"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="26"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="26"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="21"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="26"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="21"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="26"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="56"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="26"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="21"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="26"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="56"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="26"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="56"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="26"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="21"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="26"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="26"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="26"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="21"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F97" s="18"/>
-      <c r="G97" s="23"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F98" s="18"/>
-      <c r="G98" s="23"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F99" s="18"/>
-      <c r="G99" s="23"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F100" s="18"/>
-      <c r="G100" s="23"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F101" s="18"/>
-      <c r="G101" s="23"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F102" s="18"/>
-      <c r="G102" s="23"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F103" s="18"/>
-      <c r="G103" s="23"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="F30:F96"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E9:F21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="27">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A1:F1"/>
@@ -1677,6 +1672,21 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:D8"/>
+    <mergeCell ref="E6:F21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="F30:F96"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>
